--- a/Jean-Rémy DION/Rapports/Nomenclature.xlsx
+++ b/Jean-Rémy DION/Rapports/Nomenclature.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfelixlasalle-my.sharepoint.com/personal/jean-remy_dion_stfelixlasalle_fr/Documents/Documents/GitHub/SN2_SFL4Manitou_23/Jean-Rémy DION/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfelixlasalle-my.sharepoint.com/personal/jean-remy_dion_stfelixlasalle_fr/Documents/Documents/GitHub/SN2_SFL4Manitou_23/Jean-Rémy DION/Rapports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CEF96B4-5255-441C-A8DC-21BB850AD917}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A541513D-7CD4-4696-9C3D-1D6369F0695C}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{A6D686BF-90D5-45E2-8742-EE7D7C910ECC}"/>
   </bookViews>
@@ -642,7 +642,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="1000125"/>
+          <a:off x="581025" y="1009650"/>
           <a:ext cx="1848133" cy="1084585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0129D009-AB3C-49A2-9C0B-FD70C9CF620F}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jean-Rémy DION/Rapports/Nomenclature.xlsx
+++ b/Jean-Rémy DION/Rapports/Nomenclature.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1039,10 +1039,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1345,7 +1341,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jean-Rémy DION/Rapports/Nomenclature.xlsx
+++ b/Jean-Rémy DION/Rapports/Nomenclature.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,96 +62,20 @@
     <t>Contrôleur modulaire X90</t>
   </si>
   <si>
+    <t>Processeur : ARM  Cortex-A9-650 | 650MHZ
+RAM : 256 MB DDR3 SDRAM
+Application memory : 1 GB flash memory
+Ports : 
+    - 1x Ethernet
+    - USB
+    - 3x Bus CAN
+    - 1x POWERLINK</t>
+  </si>
+  <si>
     <t>6PFT50.156B-10B</t>
   </si>
   <si>
     <t>Ecran tactile FT50</t>
-  </si>
-  <si>
-    <t>4PP045.0571-062</t>
-  </si>
-  <si>
-    <t>Power Panel 45</t>
-  </si>
-  <si>
-    <t>X90CA100.02-00</t>
-  </si>
-  <si>
-    <t>X90 mobile wiring harness starter set for CMC header</t>
-  </si>
-  <si>
-    <t>3x cables : 
-    - 1x cable femelle X1.A
-    - 1x cable femelle X1.B
-    - 1x cable femelle X1.C</t>
-  </si>
-  <si>
-    <t>X67CAOE41.0020</t>
-  </si>
-  <si>
-    <t>Powerlink / Ethernet connection
-cable RJ45 vers M12</t>
-  </si>
-  <si>
-    <t>1x Powerlink / Ethernet connection
-cable RJ45 vers M12
-4 Pins
-Longueur : 2m</t>
-  </si>
-  <si>
-    <t>6ACCMA11.0300-000</t>
-  </si>
-  <si>
-    <t>FT50 pied d'écran</t>
-  </si>
-  <si>
-    <t>1x FT50 pied d'écran
-Dimensions : 
-    - Largeur : 168,2 mm
-    - Longueur : 158,1 mm
-    -  Hauteur : 282,1 mm</t>
-  </si>
-  <si>
-    <t>6COPOE.0000-00</t>
-  </si>
-  <si>
-    <t>Power Of Ethernet (POE)</t>
-  </si>
-  <si>
-    <t>LEDs : 
-    - Port d'entrée Ethernet 10/100
-    - Port de sortie Ethernet 10/100 PoE
-   - 3x LEDs pour les diagnostiques
-1x connexion réseau (RJ45)
-1x Sortie 24 VDC 
-1x PoE (RJ45)</t>
-  </si>
-  <si>
-    <t>6CAPFT.0030-02</t>
-  </si>
-  <si>
-    <t>FT50 cable de connexion Ethernet + écran</t>
-  </si>
-  <si>
-    <t>1x RJ45 (male)
-1x USB (femele)
-Longueurs : 
-    - PoE : 3m
-    - USB : 1m</t>
-  </si>
-  <si>
-    <t>0PS1100.1</t>
-  </si>
-  <si>
-    <t>Power Supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alimentation 24 VDC
-Entrée 100 à 240 VAC
-</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Processeur : ARM  Cortex-A9 4 cœurs | 800 MHz
@@ -166,14 +90,36 @@
 Rétroéclairage : LED</t>
   </si>
   <si>
-    <t>Processeur : ARM  Cortex-A9-650 | 650MHZ
-RAM : 256 MB DDR3 SDRAM
-Application memory : 1 GB flash memory
-Ports : 
-    - 1x Ethernet
-    - USB
-    - 3x Bus CAN
-    - 1x POWERLINK</t>
+    <t>6ACCMA11.0300-000</t>
+  </si>
+  <si>
+    <t>FT50 pied d'écran</t>
+  </si>
+  <si>
+    <t>1x FT50 pied d'écran
+Dimensions : 
+    - Largeur : 168,2 mm
+    - Longueur : 158,1 mm
+    -  Hauteur : 282,1 mm</t>
+  </si>
+  <si>
+    <t>6CAPFT.0030-02</t>
+  </si>
+  <si>
+    <t>FT50 cable de connexion Ethernet + écran</t>
+  </si>
+  <si>
+    <t>1x RJ45 (male)
+1x USB (femele)
+Longueurs : 
+    - PoE : 3m
+    - USB : 1m</t>
+  </si>
+  <si>
+    <t>4PP045.0571-062</t>
+  </si>
+  <si>
+    <t>Power Panel 45</t>
   </si>
   <si>
     <t>Processeur : ELaN SC520 | 100 MHz
@@ -189,12 +135,66 @@
 Couleurs : 256
 Rétroéclairage : LCD</t>
   </si>
+  <si>
+    <t>6COPOE.0000-00</t>
+  </si>
+  <si>
+    <t>Power Of Ethernet (POE)</t>
+  </si>
+  <si>
+    <t>LEDs : 
+    - Port d'entrée Ethernet 10/100
+    - Port de sortie Ethernet 10/100 PoE
+   - 3x LEDs pour les diagnostiques
+1x connexion réseau (RJ45)
+1x Sortie 24 VDC 
+1x PoE (RJ45)</t>
+  </si>
+  <si>
+    <t>X90CA100.02-00</t>
+  </si>
+  <si>
+    <t>X90 mobile wiring harness starter set for CMC header</t>
+  </si>
+  <si>
+    <t>3x cables : 
+    - 1x cable femelle X1.A
+    - 1x cable femelle X1.B
+    - 1x cable femelle X1.C</t>
+  </si>
+  <si>
+    <t>X67CAOE41.0020</t>
+  </si>
+  <si>
+    <t>Powerlink / Ethernet connection
+cable RJ45 vers M12</t>
+  </si>
+  <si>
+    <t>1x Powerlink / Ethernet connection
+cable RJ45 vers M12
+4 Pins
+Longueur : 2m</t>
+  </si>
+  <si>
+    <t>0PS1100.1</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimentation 24 VDC
+Entrée 100 à 240 VAC
+</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,7 +1042,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1344,7 +1344,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" style="2" customWidth="1"/>
@@ -1355,7 +1355,7 @@
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1374,7 +1374,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1">
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -1384,7 +1384,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="135">
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
@@ -1410,73 +1410,73 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12">
         <v>702.9</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="165">
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12">
         <v>674.1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="124.5" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F7" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="126" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F8" s="12">
         <v>46.44</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="195" customHeight="1">
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F9" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="213.75" customHeight="1">
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1491,54 +1491,54 @@
         <v>75.680000000000007</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="130.5" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F11" s="12">
         <v>163.80000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="72.75" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F12" s="12">
         <v>34.72</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="202.5" customHeight="1" thickBot="1">
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" s="17">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="21" customHeight="1" thickBot="1">
       <c r="B14" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1548,23 +1548,23 @@
         <v>2218.64</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="126" customHeight="1"/>
+    <row r="16" spans="2:9" ht="126" customHeight="1"/>
+    <row r="17" ht="126" customHeight="1"/>
+    <row r="18" ht="126" customHeight="1"/>
+    <row r="19" ht="126" customHeight="1"/>
+    <row r="20" ht="126" customHeight="1"/>
+    <row r="21" ht="126" customHeight="1"/>
+    <row r="22" ht="126" customHeight="1"/>
+    <row r="23" ht="126" customHeight="1"/>
+    <row r="24" ht="126" customHeight="1"/>
+    <row r="25" ht="126" customHeight="1"/>
+    <row r="26" ht="126" customHeight="1"/>
+    <row r="27" ht="126" customHeight="1"/>
+    <row r="28" ht="126" customHeight="1"/>
+    <row r="29" ht="126" customHeight="1"/>
+    <row r="30" ht="126" customHeight="1"/>
+    <row r="31" ht="126" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F3"/>
